--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStore\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5424B-4DBB-43D8-A2D1-B6F5BC5DCA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A49CD-5484-4BC5-9800-74B15992828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10800" yWindow="4335" windowWidth="21540" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7610" yWindow="8640" windowWidth="18650" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -106,6 +106,26 @@
   </si>
   <si>
     <t>MapSystem.InfectionData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>canInfectious</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>canBeInfectious</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可传播</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可被传播</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,12 +228,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -493,21 +514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,15 +547,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -577,43 +598,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -624,7 +667,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -635,7 +678,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -646,7 +689,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>

--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStore\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A49CD-5484-4BC5-9800-74B15992828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857EB43-28F7-45AB-941E-903DDCE459F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7610" yWindow="8640" windowWidth="18650" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="8640" windowWidth="18645" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -515,20 +515,20 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,15 +547,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -598,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -612,7 +612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
@@ -623,40 +623,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -667,7 +667,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -678,7 +678,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -689,7 +689,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -706,6 +706,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>